--- a/docss/trend/romania/E_huntington.xlsx
+++ b/docss/trend/romania/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\romania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\romania\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D17"/>
+      <selection activeCell="B1" sqref="B1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1583,13 @@
         <v>1999</v>
       </c>
       <c r="B2" s="7">
-        <v>2.3763612611219287E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C2" s="7">
-        <v>8.1649310886859894E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D2" s="7">
-        <v>3.9396909065544605E-2</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1597,13 @@
         <v>2000</v>
       </c>
       <c r="B3" s="7">
-        <v>1.283564418554306E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C3" s="7">
-        <v>1.7767103388905525E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>7.4560097418725491E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1611,13 @@
         <v>2001</v>
       </c>
       <c r="B4" s="7">
-        <v>2.1123986225575209E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C4" s="7">
-        <v>1.8416808918118477E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D4" s="7">
-        <v>2.3806073702871799E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1625,13 @@
         <v>2002</v>
       </c>
       <c r="B5" s="7">
-        <v>1.4079142827540636E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C5" s="7">
-        <v>7.0742727257311344E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D5" s="7">
-        <v>2.0319671370089054E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>2003</v>
       </c>
       <c r="B6" s="7">
-        <v>1.7883539665490389E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C6" s="7">
-        <v>1.8078007269650698E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D6" s="7">
-        <v>1.9458669237792492E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1653,13 @@
         <v>2004</v>
       </c>
       <c r="B7" s="7">
-        <v>3.7585590500384569E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C7" s="7">
-        <v>3.8674149662256241E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D7" s="7">
-        <v>3.8207689765840769E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1667,13 @@
         <v>2005</v>
       </c>
       <c r="B8" s="7">
-        <v>1.8330856692045927E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C8" s="7">
-        <v>9.5861256122589111E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D8" s="7">
-        <v>2.6493734680116177E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1681,13 @@
         <v>2006</v>
       </c>
       <c r="B9" s="7">
-        <v>2.1167462226003408E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C9" s="7">
-        <v>2.5645720772445202E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D9" s="7">
-        <v>1.6232280060648918E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1695,13 @@
         <v>2007</v>
       </c>
       <c r="B10" s="7">
-        <v>1.4487102162092924E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2.8973390348255634E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1709,13 @@
         <v>2008</v>
       </c>
       <c r="B11" s="7">
-        <v>1.688063214533031E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C11" s="7">
-        <v>9.5771215856075287E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D11" s="7">
-        <v>2.4031122680753469E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>2009</v>
       </c>
       <c r="B12" s="7">
-        <v>1.7436334397643805E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>3.3935878425836563E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>2010</v>
       </c>
       <c r="B13" s="7">
-        <v>5.1081088837236166E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C13" s="7">
-        <v>6.2483718153089285E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D13" s="7">
-        <v>4.3592925183475018E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,13 +1751,13 @@
         <v>2011</v>
       </c>
       <c r="B14" s="7">
-        <v>3.743521380238235E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C14" s="7">
-        <v>5.3219996858388186E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D14" s="7">
-        <v>2.4524793960154057E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,13 +1765,13 @@
         <v>2012</v>
       </c>
       <c r="B15" s="7">
-        <v>4.8115898389369249E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C15" s="7">
-        <v>7.2609945200383663E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D15" s="7">
-        <v>2.5005334056913853E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,13 +1779,13 @@
         <v>2013</v>
       </c>
       <c r="B16" s="7">
-        <v>2.1831734105944633E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C16" s="7">
-        <v>7.2216540575027466E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D16" s="7">
-        <v>3.4253709483891726E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,13 +1793,13 @@
         <v>2014</v>
       </c>
       <c r="B17" s="7">
-        <v>1.9465890247374773E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C17" s="7">
-        <v>2.4505275301635265E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D17" s="7">
-        <v>1.4930903911590576E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
